--- a/Заказ.xlsx
+++ b/Заказ.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Название товара</t>
   </si>
@@ -34,13 +34,31 @@
     <t>итоговая цена</t>
   </si>
   <si>
-    <t>sdas</t>
-  </si>
-  <si>
-    <t>xsadasd</t>
+    <t>Худи Зеленая</t>
+  </si>
+  <si>
+    <t>зеленый</t>
+  </si>
+  <si>
+    <t>XL</t>
   </si>
   <si>
     <t>L</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Толстовка с стразами</t>
+  </si>
+  <si>
+    <t>черный</t>
+  </si>
+  <si>
+    <t>Футболка с альчиками</t>
+  </si>
+  <si>
+    <t>белый</t>
   </si>
   <si>
     <t>+7 (937) 465 56 89</t>
@@ -430,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="40" style="1" customWidth="1"/>
@@ -469,7 +487,7 @@
         <v>4000</v>
       </c>
       <c r="C2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -478,12 +496,97 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F3" s="2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="2">
-        <v>12000</v>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="2">
+        <v>15000</v>
       </c>
     </row>
   </sheetData>

--- a/Заказ.xlsx
+++ b/Заказ.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Название товара</t>
   </si>
@@ -34,31 +34,22 @@
     <t>итоговая цена</t>
   </si>
   <si>
-    <t>Худи Зеленая</t>
-  </si>
-  <si>
-    <t>зеленый</t>
+    <t>Футболка с ЧЕРЕПОМ</t>
+  </si>
+  <si>
+    <t>черный</t>
   </si>
   <si>
     <t>XL</t>
   </si>
   <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Худи Черная</t>
+  </si>
+  <si>
     <t>L</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Толстовка с стразами</t>
-  </si>
-  <si>
-    <t>черный</t>
-  </si>
-  <si>
-    <t>Футболка с альчиками</t>
-  </si>
-  <si>
-    <t>белый</t>
   </si>
   <si>
     <t>+7 (937) 465 56 89</t>
@@ -448,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="40" style="1" customWidth="1"/>
@@ -484,7 +475,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -501,7 +492,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -515,7 +506,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
         <v>4000</v>
@@ -527,66 +518,32 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="2">
-        <v>15000</v>
+      <c r="G6" s="2">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/Заказ.xlsx
+++ b/Заказ.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Название товара</t>
   </si>
@@ -34,22 +34,16 @@
     <t>итоговая цена</t>
   </si>
   <si>
-    <t>Футболка с ЧЕРЕПОМ</t>
-  </si>
-  <si>
-    <t>черный</t>
-  </si>
-  <si>
-    <t>XL</t>
+    <t>Толстовка красканая</t>
+  </si>
+  <si>
+    <t>красный</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
   <si>
     <t>S</t>
-  </si>
-  <si>
-    <t>Худи Черная</t>
-  </si>
-  <si>
-    <t>L</t>
   </si>
   <si>
     <t>+7 (937) 465 56 89</t>
@@ -439,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="40" style="1" customWidth="1"/>
@@ -475,7 +469,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -492,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -504,45 +498,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1">
-        <v>4000</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4000</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="G4" s="2">
         <v>10000</v>
       </c>
     </row>

--- a/Заказ.xlsx
+++ b/Заказ.xlsx
@@ -34,16 +34,16 @@
     <t>итоговая цена</t>
   </si>
   <si>
-    <t>Толстовка красканая</t>
-  </si>
-  <si>
-    <t>красный</t>
+    <t>Худи Зеленая</t>
+  </si>
+  <si>
+    <t>зеленый</t>
+  </si>
+  <si>
+    <t>XL</t>
   </si>
   <si>
     <t>L</t>
-  </si>
-  <si>
-    <t>S</t>
   </si>
   <si>
     <t>+7 (937) 465 56 89</t>
@@ -469,7 +469,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -503,7 +503,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="2">
-        <v>10000</v>
+        <v>8000</v>
       </c>
     </row>
   </sheetData>

--- a/Заказ.xlsx
+++ b/Заказ.xlsx
@@ -34,10 +34,10 @@
     <t>итоговая цена</t>
   </si>
   <si>
-    <t>Худи Зеленая</t>
-  </si>
-  <si>
-    <t>зеленый</t>
+    <t>Футболка с альчиками</t>
+  </si>
+  <si>
+    <t>черный</t>
   </si>
   <si>
     <t>XL</t>
@@ -469,7 +469,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -503,7 +503,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="2">
-        <v>8000</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/Заказ.xlsx
+++ b/Заказ.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Название товара</t>
   </si>
@@ -34,16 +34,22 @@
     <t>итоговая цена</t>
   </si>
   <si>
+    <t>Футболка с ЧЕРЕПОМ</t>
+  </si>
+  <si>
+    <t>черный</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
     <t>Футболка с альчиками</t>
   </si>
   <si>
-    <t>черный</t>
-  </si>
-  <si>
     <t>XL</t>
-  </si>
-  <si>
-    <t>L</t>
   </si>
   <si>
     <t>+7 (937) 465 56 89</t>
@@ -433,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="40" style="1" customWidth="1"/>
@@ -498,12 +504,46 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F4" s="2" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="2">
-        <v>2000</v>
+      <c r="B4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2">
+        <v>4000</v>
       </c>
     </row>
   </sheetData>

--- a/Заказ.xlsx
+++ b/Заказ.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Название товара</t>
   </si>
@@ -34,22 +34,16 @@
     <t>итоговая цена</t>
   </si>
   <si>
-    <t>Футболка с ЧЕРЕПОМ</t>
-  </si>
-  <si>
-    <t>черный</t>
+    <t>Худи Зеленая</t>
+  </si>
+  <si>
+    <t>зеленый</t>
+  </si>
+  <si>
+    <t>XL</t>
   </si>
   <si>
     <t>L</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Футболка с альчиками</t>
-  </si>
-  <si>
-    <t>XL</t>
   </si>
   <si>
     <t>+7 (937) 465 56 89</t>
@@ -439,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="40" style="1" customWidth="1"/>
@@ -475,7 +469,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -492,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -504,46 +498,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="2">
-        <v>4000</v>
+      <c r="G4" s="2">
+        <v>8000</v>
       </c>
     </row>
   </sheetData>

--- a/Заказ.xlsx
+++ b/Заказ.xlsx
@@ -34,16 +34,16 @@
     <t>итоговая цена</t>
   </si>
   <si>
-    <t>Худи Зеленая</t>
-  </si>
-  <si>
-    <t>зеленый</t>
+    <t>Футболка с ЧЕРЕПОМ</t>
+  </si>
+  <si>
+    <t>черный</t>
   </si>
   <si>
     <t>XL</t>
   </si>
   <si>
-    <t>L</t>
+    <t>S</t>
   </si>
   <si>
     <t>+7 (937) 465 56 89</t>
@@ -469,7 +469,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -503,7 +503,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="2">
-        <v>8000</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/Заказ.xlsx
+++ b/Заказ.xlsx
@@ -43,7 +43,7 @@
     <t>XL</t>
   </si>
   <si>
-    <t>S</t>
+    <t>L</t>
   </si>
   <si>
     <t>+7 (937) 465 56 89</t>

--- a/Заказ.xlsx
+++ b/Заказ.xlsx
@@ -34,7 +34,7 @@
     <t>итоговая цена</t>
   </si>
   <si>
-    <t>Футболка с ЧЕРЕПОМ</t>
+    <t>Футболка с альчиками</t>
   </si>
   <si>
     <t>черный</t>
@@ -43,7 +43,7 @@
     <t>XL</t>
   </si>
   <si>
-    <t>L</t>
+    <t>S</t>
   </si>
   <si>
     <t>+7 (937) 465 56 89</t>

--- a/Заказ.xlsx
+++ b/Заказ.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Название товара</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>XL</t>
-  </si>
-  <si>
-    <t>S</t>
   </si>
   <si>
     <t>+7 (937) 465 56 89</t>
@@ -433,7 +430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="40" style="1" customWidth="1"/>
@@ -481,29 +478,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1">
+    <row r="3" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2">
         <v>1000</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2">
-        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/Заказ.xlsx
+++ b/Заказ.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>Название товара</t>
   </si>
@@ -34,13 +34,34 @@
     <t>итоговая цена</t>
   </si>
   <si>
+    <t>Толстовка с стразами</t>
+  </si>
+  <si>
+    <t>черный</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
     <t>Футболка с альчиками</t>
   </si>
   <si>
-    <t>черный</t>
-  </si>
-  <si>
     <t>XL</t>
+  </si>
+  <si>
+    <t>Толстовка красканая</t>
+  </si>
+  <si>
+    <t>красный</t>
+  </si>
+  <si>
+    <t>Худи синяя</t>
+  </si>
+  <si>
+    <t>синий</t>
   </si>
   <si>
     <t>+7 (937) 465 56 89</t>
@@ -430,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G11"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="40" style="1" customWidth="1"/>
@@ -478,12 +499,148 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F3" s="2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
         <v>1000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7500</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1">
+        <v>7500</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="2">
+        <v>34000</v>
       </c>
     </row>
   </sheetData>
